--- a/최종산출물/Test Case_Test Result.xlsx
+++ b/최종산출물/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/최종산출물/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/최종산출물/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C1EFE-6D7E-E84C-96CA-951FD447CAFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E49121-08EC-0049-AEA6-7E940BF578D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="500" windowWidth="25600" windowHeight="14640" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="16" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="548">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -567,10 +567,6 @@
   </si>
   <si>
     <t>my Lab 멤버 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기기 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -869,35 +865,6 @@
   <si>
     <t>Entity Class.Operation( )</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register for Courses</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a schedule</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterForCoursesForm.createSchedule( )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegistrationController.createSchedule( )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule.createSchedule( )
-Student.addSchedule( )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>my Lab 약품 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>선택 완료 버튼</t>
@@ -2162,7 +2129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2218,12 +2185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2251,10 +2212,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2266,23 +2230,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2290,8 +2245,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2613,7 +2574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C0D00D-BEA6-42BC-B0E5-320E593D0F46}">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
@@ -2622,9 +2583,9 @@
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.1640625" customWidth="1"/>
     <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
@@ -2648,280 +2609,286 @@
     </row>
     <row r="3" spans="2:7" ht="34" customHeight="1">
       <c r="B3" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="4" spans="2:7" ht="34" customHeight="1">
-      <c r="B4" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>225</v>
+      <c r="B4" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="34" customHeight="1">
-      <c r="B5" s="24"/>
+      <c r="B5" s="38" t="s">
+        <v>517</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>379</v>
+      <c r="E5" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="34" customHeight="1">
-      <c r="B6" s="24"/>
-      <c r="C6" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>378</v>
+      <c r="B6" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="34" customHeight="1">
-      <c r="B7" s="24"/>
+      <c r="B7" s="38" t="s">
+        <v>521</v>
+      </c>
       <c r="C7" s="13" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>383</v>
+        <v>143</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" customHeight="1">
-      <c r="B8" s="24"/>
+      <c r="B8" s="38" t="s">
+        <v>525</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>385</v>
+      <c r="E8" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34" customHeight="1">
-      <c r="B9" s="24"/>
+      <c r="B9" s="38" t="s">
+        <v>529</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>387</v>
+      <c r="E9" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="34" customHeight="1">
-      <c r="B10" s="24"/>
+      <c r="B10" s="38" t="s">
+        <v>533</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>389</v>
+      <c r="E10" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="34" customHeight="1">
-      <c r="B11" s="24"/>
+      <c r="B11" s="38" t="s">
+        <v>535</v>
+      </c>
       <c r="C11" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>391</v>
+        <v>271</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="34" customHeight="1">
-      <c r="B12" s="24"/>
+      <c r="B12" s="38" t="s">
+        <v>537</v>
+      </c>
       <c r="C12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>393</v>
+      <c r="E12" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="34" customHeight="1">
-      <c r="B13" s="24"/>
+      <c r="B13" s="38" t="s">
+        <v>538</v>
+      </c>
       <c r="C13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>395</v>
+      <c r="E13" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="34" customHeight="1">
-      <c r="B14" s="24"/>
+      <c r="B14" s="38" t="s">
+        <v>542</v>
+      </c>
       <c r="C14" s="13" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>397</v>
+        <v>117</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="34" customHeight="1">
-      <c r="B15" s="24"/>
+      <c r="B15" s="38" t="s">
+        <v>544</v>
+      </c>
       <c r="C15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>399</v>
+      <c r="D15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="34" customHeight="1">
-      <c r="B16" s="24"/>
+      <c r="B16" s="38" t="s">
+        <v>546</v>
+      </c>
       <c r="C16" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="34" customHeight="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="34" customHeight="1">
-      <c r="B18" s="23"/>
+      <c r="E16" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="34" customHeight="1">
+      <c r="B17" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2960,66 +2927,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="34" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="34" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>99</v>
@@ -3034,52 +3001,52 @@
         <v>101</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>102</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="44"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="2:23" ht="34" customHeight="1">
-      <c r="B4" s="37" t="s">
-        <v>447</v>
+      <c r="B4" s="35" t="s">
+        <v>439</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E4" s="19"/>
-      <c r="F4" s="37" t="s">
-        <v>413</v>
+      <c r="F4" s="35" t="s">
+        <v>405</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>86</v>
@@ -3094,9 +3061,9 @@
         <v>9</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P4" s="31">
+        <v>155</v>
+      </c>
+      <c r="P4" s="29">
         <v>241227</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -3106,49 +3073,49 @@
         <v>104</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="34" customHeight="1">
-      <c r="B5" s="37" t="s">
-        <v>517</v>
+      <c r="B5" s="35" t="s">
+        <v>509</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>414</v>
+        <v>178</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>406</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>9</v>
@@ -3160,9 +3127,9 @@
         <v>9</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="31">
+        <v>155</v>
+      </c>
+      <c r="P5" s="29">
         <v>241227</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -3172,45 +3139,45 @@
         <v>104</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="W5" s="32" t="s">
-        <v>257</v>
+        <v>241</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="34" customHeight="1">
-      <c r="B6" s="37" t="s">
-        <v>518</v>
+      <c r="B6" s="35" t="s">
+        <v>510</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>415</v>
+        <v>179</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>407</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>86</v>
@@ -3219,15 +3186,15 @@
         <v>9</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P6" s="31">
+        <v>155</v>
+      </c>
+      <c r="P6" s="29">
         <v>241227</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -3237,48 +3204,48 @@
         <v>104</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>257</v>
+        <v>242</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="34" customHeight="1">
-      <c r="B7" s="37" t="s">
-        <v>519</v>
+      <c r="B7" s="35" t="s">
+        <v>511</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>416</v>
+        <v>327</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>408</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>86</v>
@@ -3287,15 +3254,15 @@
         <v>9</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P7" s="31">
+      <c r="P7" s="29">
         <v>241227</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -3305,48 +3272,48 @@
         <v>104</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="V7" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="W7" s="32" t="s">
-        <v>257</v>
+      <c r="U7" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="V7" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="34" customHeight="1">
-      <c r="B8" s="37" t="s">
-        <v>519</v>
+      <c r="B8" s="35" t="s">
+        <v>511</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E8" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>417</v>
+        <v>327</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>409</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>86</v>
@@ -3355,15 +3322,15 @@
         <v>9</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P8" s="31">
+      <c r="P8" s="29">
         <v>241227</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -3373,48 +3340,48 @@
         <v>104</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="V8" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="W8" s="32" t="s">
-        <v>257</v>
+      <c r="U8" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="V8" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="34" customHeight="1">
-      <c r="B9" s="37" t="s">
-        <v>519</v>
+      <c r="B9" s="35" t="s">
+        <v>511</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>418</v>
+        <v>327</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>410</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>86</v>
@@ -3423,15 +3390,15 @@
         <v>9</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P9" s="31">
+      <c r="P9" s="29">
         <v>241227</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -3441,46 +3408,46 @@
         <v>104</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="W9" s="32" t="s">
-        <v>257</v>
+      <c r="U9" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="34" customHeight="1">
-      <c r="B10" s="37" t="s">
-        <v>520</v>
+      <c r="B10" s="35" t="s">
+        <v>512</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>419</v>
+        <v>328</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>411</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>86</v>
@@ -3489,15 +3456,15 @@
         <v>9</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P10" s="31">
+        <v>155</v>
+      </c>
+      <c r="P10" s="29">
         <v>241227</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -3507,46 +3474,46 @@
         <v>104</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>257</v>
+      <c r="U10" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="34" customHeight="1">
-      <c r="B11" s="37" t="s">
-        <v>447</v>
+      <c r="B11" s="35" t="s">
+        <v>439</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="37" t="s">
-        <v>420</v>
+      <c r="F11" s="35" t="s">
+        <v>412</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>86</v>
@@ -3561,9 +3528,9 @@
         <v>8</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P11" s="31">
+        <v>155</v>
+      </c>
+      <c r="P11" s="29">
         <v>241227</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -3579,40 +3546,40 @@
         <v>8</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="W11" s="32" t="s">
-        <v>257</v>
+        <v>159</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="34" customHeight="1">
-      <c r="B12" s="37" t="s">
-        <v>521</v>
+      <c r="B12" s="35" t="s">
+        <v>513</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>421</v>
+        <v>323</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>413</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>86</v>
@@ -3621,15 +3588,15 @@
         <v>9</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P12" s="31">
+        <v>321</v>
+      </c>
+      <c r="P12" s="29">
         <v>241227</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -3639,46 +3606,46 @@
         <v>104</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="W12" s="32" t="s">
-        <v>257</v>
+      <c r="U12" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="34" customHeight="1">
-      <c r="B13" s="37" t="s">
-        <v>522</v>
+      <c r="B13" s="35" t="s">
+        <v>514</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>422</v>
+        <v>329</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>414</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>86</v>
@@ -3687,15 +3654,15 @@
         <v>9</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P13" s="31">
+        <v>321</v>
+      </c>
+      <c r="P13" s="29">
         <v>191233</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -3705,46 +3672,46 @@
         <v>104</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="V13" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="W13" s="32" t="s">
-        <v>257</v>
+      <c r="U13" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="34" customHeight="1">
-      <c r="B14" s="37" t="s">
-        <v>523</v>
+      <c r="B14" s="35" t="s">
+        <v>515</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>423</v>
+        <v>331</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>415</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>86</v>
@@ -3759,9 +3726,9 @@
         <v>8</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P14" s="31">
+        <v>155</v>
+      </c>
+      <c r="P14" s="29">
         <v>241227</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -3777,40 +3744,40 @@
         <v>8</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="W14" s="32" t="s">
-        <v>257</v>
+        <v>243</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="34" customHeight="1">
-      <c r="B15" s="37" t="s">
-        <v>447</v>
+      <c r="B15" s="35" t="s">
+        <v>439</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="37" t="s">
-        <v>424</v>
+      <c r="F15" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>86</v>
@@ -3825,9 +3792,9 @@
         <v>8</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P15" s="31">
+        <v>155</v>
+      </c>
+      <c r="P15" s="29">
         <v>241227</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -3837,49 +3804,49 @@
         <v>104</v>
       </c>
       <c r="S15" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="V15" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="W15" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="34" customHeight="1">
+      <c r="B16" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="W15" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" ht="34" customHeight="1">
-      <c r="B16" s="37" t="s">
-        <v>524</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>9</v>
@@ -3891,61 +3858,61 @@
         <v>8</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="31">
+        <v>155</v>
+      </c>
+      <c r="P16" s="29">
         <v>241227</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="V16" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="W16" s="32" t="s">
-        <v>257</v>
+      <c r="U16" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="V16" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="34" customHeight="1">
-      <c r="B17" s="37" t="s">
-        <v>524</v>
+      <c r="B17" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="37" t="s">
-        <v>426</v>
+      <c r="F17" s="35" t="s">
+        <v>418</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>9</v>
@@ -3957,61 +3924,61 @@
         <v>8</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P17" s="31">
+        <v>155</v>
+      </c>
+      <c r="P17" s="29">
         <v>241227</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="V17" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="W17" s="32" t="s">
-        <v>257</v>
+      <c r="U17" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="V17" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="34" customHeight="1">
-      <c r="B18" s="37" t="s">
-        <v>524</v>
+      <c r="B18" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="37" t="s">
-        <v>427</v>
+      <c r="F18" s="35" t="s">
+        <v>419</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>9</v>
@@ -4023,61 +3990,61 @@
         <v>8</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" s="31">
+        <v>155</v>
+      </c>
+      <c r="P18" s="29">
         <v>241227</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="V18" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="W18" s="32" t="s">
-        <v>257</v>
+      <c r="U18" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="V18" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="34" customHeight="1">
-      <c r="B19" s="37" t="s">
-        <v>524</v>
+      <c r="B19" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="37" t="s">
-        <v>428</v>
+      <c r="F19" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>9</v>
@@ -4089,61 +4056,61 @@
         <v>8</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P19" s="31">
+        <v>155</v>
+      </c>
+      <c r="P19" s="29">
         <v>241227</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U19" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="V19" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="W19" s="32" t="s">
-        <v>257</v>
+      <c r="U19" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="V19" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="34" customHeight="1">
-      <c r="B20" s="37" t="s">
-        <v>524</v>
+      <c r="B20" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="19"/>
-      <c r="F20" s="37" t="s">
-        <v>429</v>
+      <c r="F20" s="35" t="s">
+        <v>421</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>9</v>
@@ -4155,61 +4122,61 @@
         <v>8</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P20" s="31">
+        <v>155</v>
+      </c>
+      <c r="P20" s="29">
         <v>241227</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="V20" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="W20" s="32" t="s">
-        <v>257</v>
+      <c r="U20" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="V20" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="W20" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="34" customHeight="1">
-      <c r="B21" s="37" t="s">
-        <v>524</v>
+      <c r="B21" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="37" t="s">
-        <v>430</v>
+      <c r="F21" s="35" t="s">
+        <v>422</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>9</v>
@@ -4221,61 +4188,61 @@
         <v>8</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P21" s="31">
+        <v>155</v>
+      </c>
+      <c r="P21" s="29">
         <v>241227</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="V21" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="W21" s="32" t="s">
-        <v>257</v>
+      <c r="U21" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="V21" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="34" customHeight="1">
-      <c r="B22" s="37" t="s">
-        <v>524</v>
+      <c r="B22" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="37" t="s">
-        <v>431</v>
+      <c r="F22" s="35" t="s">
+        <v>423</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>9</v>
@@ -4287,61 +4254,61 @@
         <v>8</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P22" s="31">
+        <v>155</v>
+      </c>
+      <c r="P22" s="29">
         <v>241227</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="V22" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="W22" s="32" t="s">
-        <v>257</v>
+      <c r="U22" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="V22" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="W22" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="34" customHeight="1">
-      <c r="B23" s="37" t="s">
-        <v>524</v>
+      <c r="B23" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="19"/>
-      <c r="F23" s="37" t="s">
-        <v>432</v>
+      <c r="F23" s="35" t="s">
+        <v>424</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>9</v>
@@ -4353,61 +4320,61 @@
         <v>8</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" s="31">
+        <v>155</v>
+      </c>
+      <c r="P23" s="29">
         <v>241227</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U23" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="V23" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="W23" s="32" t="s">
-        <v>257</v>
+      <c r="U23" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="V23" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="W23" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="34" customHeight="1">
-      <c r="B24" s="37" t="s">
-        <v>524</v>
+      <c r="B24" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="37" t="s">
-        <v>433</v>
+      <c r="F24" s="35" t="s">
+        <v>425</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>9</v>
@@ -4419,52 +4386,52 @@
         <v>8</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="31">
+        <v>155</v>
+      </c>
+      <c r="P24" s="29">
         <v>241227</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="V24" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="W24" s="32" t="s">
-        <v>257</v>
+      <c r="U24" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="V24" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="W24" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="34" customHeight="1">
-      <c r="B25" s="37" t="s">
-        <v>525</v>
+      <c r="B25" s="35" t="s">
+        <v>517</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="19"/>
-      <c r="F25" s="37" t="s">
-        <v>434</v>
+      <c r="F25" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>8</v>
@@ -4473,7 +4440,7 @@
         <v>8</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>9</v>
@@ -4485,63 +4452,63 @@
         <v>8</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P25" s="31">
+        <v>155</v>
+      </c>
+      <c r="P25" s="29">
         <v>241227</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="V25" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="W25" s="32" t="s">
-        <v>257</v>
+      <c r="U25" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="W25" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="34" customHeight="1">
-      <c r="B26" s="37" t="s">
-        <v>526</v>
+      <c r="B26" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>435</v>
+        <v>324</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>427</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>9</v>
@@ -4553,52 +4520,52 @@
         <v>8</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P26" s="31">
+        <v>155</v>
+      </c>
+      <c r="P26" s="29">
         <v>241227</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S26" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="V26" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="W26" s="32" t="s">
-        <v>257</v>
+      <c r="U26" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="V26" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="W26" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="34" customHeight="1">
-      <c r="B27" s="37" t="s">
-        <v>525</v>
+      <c r="B27" s="35" t="s">
+        <v>517</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="37" t="s">
-        <v>436</v>
+      <c r="F27" s="35" t="s">
+        <v>428</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>8</v>
@@ -4607,7 +4574,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>9</v>
@@ -4619,63 +4586,63 @@
         <v>8</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P27" s="31">
+        <v>155</v>
+      </c>
+      <c r="P27" s="29">
         <v>241227</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="V27" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="W27" s="32" t="s">
-        <v>257</v>
+      <c r="U27" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="V27" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="W27" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="34" customHeight="1">
-      <c r="B28" s="37" t="s">
-        <v>526</v>
+      <c r="B28" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>437</v>
+        <v>324</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>429</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>9</v>
@@ -4687,52 +4654,52 @@
         <v>8</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" s="31">
+        <v>155</v>
+      </c>
+      <c r="P28" s="29">
         <v>241227</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U28" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="S28" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U28" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="V28" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="W28" s="32" t="s">
-        <v>257</v>
+      <c r="V28" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="W28" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="34" customHeight="1">
-      <c r="B29" s="37" t="s">
-        <v>525</v>
+      <c r="B29" s="35" t="s">
+        <v>517</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="19"/>
-      <c r="F29" s="37" t="s">
-        <v>438</v>
+      <c r="F29" s="35" t="s">
+        <v>430</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>8</v>
@@ -4753,16 +4720,16 @@
         <v>8</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P29" s="31">
+        <v>155</v>
+      </c>
+      <c r="P29" s="29">
         <v>241227</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>9</v>
@@ -4770,37 +4737,37 @@
       <c r="T29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="V29" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="W29" s="32" t="s">
-        <v>257</v>
+      <c r="U29" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="V29" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="W29" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="34" customHeight="1">
-      <c r="B30" s="37" t="s">
-        <v>526</v>
+      <c r="B30" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>439</v>
+        <v>324</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>431</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>105</v>
@@ -4821,16 +4788,16 @@
         <v>8</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P30" s="31">
+        <v>155</v>
+      </c>
+      <c r="P30" s="29">
         <v>241227</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>9</v>
@@ -4838,35 +4805,35 @@
       <c r="T30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U30" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="V30" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="W30" s="32" t="s">
-        <v>257</v>
+      <c r="U30" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="V30" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="W30" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="34" customHeight="1">
-      <c r="B31" s="37" t="s">
-        <v>525</v>
+      <c r="B31" s="35" t="s">
+        <v>517</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="37" t="s">
-        <v>440</v>
+      <c r="F31" s="35" t="s">
+        <v>432</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>8</v>
@@ -4887,16 +4854,16 @@
         <v>8</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P31" s="31">
+        <v>155</v>
+      </c>
+      <c r="P31" s="29">
         <v>241227</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>9</v>
@@ -4904,37 +4871,37 @@
       <c r="T31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U31" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="V31" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="W31" s="32" t="s">
-        <v>257</v>
+      <c r="U31" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="W31" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="34" customHeight="1">
-      <c r="B32" s="37" t="s">
-        <v>526</v>
+      <c r="B32" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>441</v>
+        <v>324</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>433</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>105</v>
@@ -4955,16 +4922,16 @@
         <v>8</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P32" s="31">
+        <v>155</v>
+      </c>
+      <c r="P32" s="29">
         <v>241227</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>9</v>
@@ -4972,35 +4939,35 @@
       <c r="T32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U32" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="V32" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="W32" s="32" t="s">
-        <v>257</v>
+      <c r="U32" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="V32" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="W32" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="34" customHeight="1">
-      <c r="B33" s="37" t="s">
-        <v>525</v>
+      <c r="B33" s="35" t="s">
+        <v>517</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E33" s="19"/>
-      <c r="F33" s="37" t="s">
-        <v>442</v>
+      <c r="F33" s="35" t="s">
+        <v>434</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>8</v>
@@ -5021,16 +4988,16 @@
         <v>8</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P33" s="31">
+        <v>155</v>
+      </c>
+      <c r="P33" s="29">
         <v>241227</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>9</v>
@@ -5038,37 +5005,37 @@
       <c r="T33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U33" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="V33" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="W33" s="32" t="s">
-        <v>257</v>
+      <c r="U33" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="V33" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="W33" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="2:23" ht="34" customHeight="1">
-      <c r="B34" s="37" t="s">
-        <v>526</v>
+      <c r="B34" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>443</v>
+        <v>324</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>435</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>103</v>
@@ -5089,16 +5056,16 @@
         <v>8</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P34" s="31">
+        <v>155</v>
+      </c>
+      <c r="P34" s="29">
         <v>241227</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>9</v>
@@ -5106,37 +5073,37 @@
       <c r="T34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U34" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="V34" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="W34" s="32" t="s">
-        <v>257</v>
+      <c r="U34" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="V34" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="W34" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="34" customHeight="1">
-      <c r="B35" s="37" t="s">
-        <v>526</v>
+      <c r="B35" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>444</v>
+        <v>324</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>436</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>106</v>
@@ -5157,16 +5124,16 @@
         <v>8</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P35" s="31">
+        <v>155</v>
+      </c>
+      <c r="P35" s="29">
         <v>241227</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>9</v>
@@ -5174,37 +5141,37 @@
       <c r="T35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U35" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="V35" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="W35" s="32" t="s">
-        <v>257</v>
+      <c r="U35" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="V35" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="W35" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="34" customHeight="1">
-      <c r="B36" s="37" t="s">
-        <v>526</v>
+      <c r="B36" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>445</v>
+        <v>324</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>437</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>107</v>
@@ -5225,16 +5192,16 @@
         <v>8</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P36" s="31">
+        <v>155</v>
+      </c>
+      <c r="P36" s="29">
         <v>241227</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>9</v>
@@ -5242,29 +5209,29 @@
       <c r="T36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U36" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="V36" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="W36" s="32" t="s">
-        <v>257</v>
+      <c r="U36" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="V36" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="W36" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5297,54 +5264,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="42" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="43" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="4" t="s">
         <v>55</v>
       </c>
@@ -5372,26 +5339,26 @@
       <c r="P3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="50"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="2:19" ht="34" customHeight="1">
-      <c r="B4" s="37" t="s">
-        <v>527</v>
+      <c r="B4" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="37" t="s">
-        <v>446</v>
+      <c r="F4" s="35" t="s">
+        <v>438</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>86</v>
@@ -5426,26 +5393,26 @@
       <c r="R4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="32" t="s">
-        <v>257</v>
+      <c r="S4" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="34" customHeight="1">
-      <c r="B5" s="37" t="s">
-        <v>527</v>
+      <c r="B5" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="37" t="s">
-        <v>448</v>
+      <c r="F5" s="35" t="s">
+        <v>440</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -5480,26 +5447,26 @@
       <c r="R5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>257</v>
+      <c r="S5" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="37" t="s">
-        <v>527</v>
+      <c r="B6" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="37" t="s">
-        <v>449</v>
+      <c r="F6" s="35" t="s">
+        <v>441</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>86</v>
@@ -5534,26 +5501,26 @@
       <c r="R6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="32" t="s">
-        <v>257</v>
+      <c r="S6" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="37" t="s">
-        <v>527</v>
+      <c r="B7" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="37" t="s">
-        <v>450</v>
+      <c r="F7" s="35" t="s">
+        <v>442</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>86</v>
@@ -5588,26 +5555,26 @@
       <c r="R7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>257</v>
+      <c r="S7" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="37" t="s">
-        <v>527</v>
+      <c r="B8" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="37" t="s">
-        <v>451</v>
+      <c r="F8" s="35" t="s">
+        <v>443</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>86</v>
@@ -5637,31 +5604,31 @@
         <v>8</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="37" t="s">
-        <v>527</v>
+      <c r="B9" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="37" t="s">
-        <v>452</v>
+      <c r="F9" s="35" t="s">
+        <v>444</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>86</v>
@@ -5691,30 +5658,30 @@
         <v>8</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>257</v>
+        <v>237</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="37" t="s">
-        <v>528</v>
+      <c r="B10" s="35" t="s">
+        <v>520</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>453</v>
+      <c r="F10" s="35" t="s">
+        <v>445</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
@@ -5745,31 +5712,31 @@
         <v>8</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="37" t="s">
-        <v>527</v>
+      <c r="B11" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="37" t="s">
-        <v>454</v>
+      <c r="F11" s="35" t="s">
+        <v>446</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>86</v>
@@ -5804,23 +5771,23 @@
       <c r="R11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="32" t="s">
-        <v>257</v>
+      <c r="S11" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="37" t="s">
-        <v>527</v>
+      <c r="B12" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="37" t="s">
-        <v>455</v>
+      <c r="F12" s="35" t="s">
+        <v>447</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>123</v>
@@ -5853,28 +5820,28 @@
         <v>8</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>257</v>
+        <v>239</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5911,57 +5878,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="34" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="42" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="43" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="34" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
@@ -5998,23 +5965,23 @@
       <c r="S3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" spans="2:22" ht="34" customHeight="1">
-      <c r="B4" s="37" t="s">
-        <v>529</v>
+      <c r="B4" s="35" t="s">
+        <v>521</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="37" t="s">
-        <v>456</v>
+      <c r="F4" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -6054,30 +6021,30 @@
         <v>10</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="34" customHeight="1">
-      <c r="B5" s="37" t="s">
-        <v>530</v>
+      <c r="B5" s="35" t="s">
+        <v>522</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>457</v>
+        <v>262</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>449</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
@@ -6117,30 +6084,30 @@
         <v>8</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="34" customHeight="1">
-      <c r="B6" s="37" t="s">
-        <v>531</v>
+      <c r="B6" s="35" t="s">
+        <v>523</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>458</v>
+        <v>263</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>450</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
@@ -6180,30 +6147,30 @@
         <v>10</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="34" customHeight="1">
-      <c r="B7" s="37" t="s">
-        <v>532</v>
+      <c r="B7" s="35" t="s">
+        <v>524</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>459</v>
+        <v>264</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>451</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
@@ -6243,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="34" customHeight="1">
-      <c r="B8" s="37" t="s">
-        <v>533</v>
+      <c r="B8" s="35" t="s">
+        <v>525</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="37" t="s">
-        <v>460</v>
+      <c r="F8" s="35" t="s">
+        <v>452</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
@@ -6304,30 +6271,30 @@
         <v>10</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="V8" s="33" t="s">
-        <v>257</v>
+        <v>224</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="34" customHeight="1">
-      <c r="B9" s="37" t="s">
-        <v>534</v>
+      <c r="B9" s="35" t="s">
+        <v>526</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>461</v>
+        <v>267</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>453</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
@@ -6340,7 +6307,7 @@
         <v>29</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>14</v>
@@ -6367,30 +6334,30 @@
         <v>8</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="34" customHeight="1">
-      <c r="B10" s="37" t="s">
-        <v>535</v>
+      <c r="B10" s="35" t="s">
+        <v>527</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>462</v>
+        <v>265</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>454</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
@@ -6430,30 +6397,30 @@
         <v>10</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="34" customHeight="1">
-      <c r="B11" s="37" t="s">
-        <v>536</v>
+      <c r="B11" s="35" t="s">
+        <v>528</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>463</v>
+        <v>266</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>455</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -6463,7 +6430,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>8</v>
@@ -6493,28 +6460,28 @@
         <v>10</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="34" customHeight="1">
-      <c r="B12" s="37" t="s">
-        <v>537</v>
+      <c r="B12" s="35" t="s">
+        <v>529</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="37" t="s">
-        <v>464</v>
+      <c r="F12" s="35" t="s">
+        <v>456</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
@@ -6554,30 +6521,30 @@
         <v>10</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="34" customHeight="1">
-      <c r="B13" s="37" t="s">
-        <v>538</v>
+      <c r="B13" s="35" t="s">
+        <v>530</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>465</v>
+        <v>270</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>457</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -6617,30 +6584,30 @@
         <v>8</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="34" customHeight="1">
-      <c r="B14" s="37" t="s">
-        <v>539</v>
+      <c r="B14" s="35" t="s">
+        <v>531</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>466</v>
+        <v>268</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>458</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
@@ -6680,30 +6647,30 @@
         <v>8</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="34" customHeight="1">
-      <c r="B15" s="37" t="s">
-        <v>540</v>
+      <c r="B15" s="35" t="s">
+        <v>532</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>467</v>
+        <v>269</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>459</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
@@ -6743,28 +6710,28 @@
         <v>10</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="34" customHeight="1">
-      <c r="B16" s="37" t="s">
-        <v>541</v>
+      <c r="B16" s="35" t="s">
+        <v>533</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="37" t="s">
-        <v>468</v>
+      <c r="F16" s="35" t="s">
+        <v>460</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
@@ -6774,7 +6741,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>8</v>
@@ -6804,31 +6771,31 @@
         <v>10</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="34" customHeight="1">
-      <c r="B17" s="37" t="s">
-        <v>541</v>
+      <c r="B17" s="35" t="s">
+        <v>533</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="37" t="s">
-        <v>469</v>
+      <c r="F17" s="35" t="s">
+        <v>461</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>19</v>
@@ -6867,30 +6834,30 @@
         <v>9</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="34" customHeight="1">
-      <c r="B18" s="37" t="s">
-        <v>542</v>
+      <c r="B18" s="35" t="s">
+        <v>534</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>470</v>
+        <v>267</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>462</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
@@ -6930,28 +6897,28 @@
         <v>8</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -7015,58 +6982,58 @@
     </row>
     <row r="2" spans="1:22" ht="34" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="43" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="34" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7079,8 +7046,8 @@
       <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>234</v>
+      <c r="L3" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>31</v>
@@ -7088,11 +7055,11 @@
       <c r="N3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>237</v>
+      <c r="O3" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>32</v>
@@ -7103,24 +7070,24 @@
       <c r="S3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" spans="1:22" ht="34" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="37" t="s">
-        <v>543</v>
+      <c r="B4" s="35" t="s">
+        <v>535</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="37" t="s">
-        <v>471</v>
+      <c r="F4" s="35" t="s">
+        <v>463</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -7166,25 +7133,25 @@
         <v>38</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="34" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="37" t="s">
-        <v>544</v>
+      <c r="B5" s="35" t="s">
+        <v>536</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>472</v>
+        <v>141</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>464</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
@@ -7224,32 +7191,32 @@
         <v>37</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="34" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="37" t="s">
-        <v>543</v>
+      <c r="B6" s="35" t="s">
+        <v>535</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="37" t="s">
-        <v>473</v>
+      <c r="F6" s="35" t="s">
+        <v>465</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
@@ -7294,23 +7261,23 @@
         <v>11</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="34" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="37" t="s">
-        <v>545</v>
+      <c r="B7" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="37" t="s">
-        <v>474</v>
+      <c r="F7" s="35" t="s">
+        <v>466</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
@@ -7350,32 +7317,32 @@
         <v>37</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="34" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="37" t="s">
-        <v>545</v>
+      <c r="B8" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="37" t="s">
-        <v>475</v>
+      <c r="F8" s="35" t="s">
+        <v>467</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
@@ -7420,23 +7387,23 @@
         <v>11</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="34" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="37" t="s">
-        <v>546</v>
+      <c r="B9" s="35" t="s">
+        <v>538</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="37" t="s">
-        <v>476</v>
+      <c r="F9" s="35" t="s">
+        <v>468</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
@@ -7476,31 +7443,31 @@
         <v>37</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="34" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="37" t="s">
-        <v>546</v>
+      <c r="B10" s="35" t="s">
+        <v>538</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>477</v>
+        <v>275</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>469</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>19</v>
@@ -7538,32 +7505,32 @@
       <c r="S10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="U10" s="30" t="s">
-        <v>281</v>
+      <c r="T10" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>273</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="34" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="37" t="s">
-        <v>547</v>
+      <c r="B11" s="35" t="s">
+        <v>539</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>478</v>
+        <v>232</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -7591,7 +7558,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>10</v>
@@ -7603,31 +7570,31 @@
         <v>10</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="34" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="37" t="s">
-        <v>548</v>
+      <c r="B12" s="35" t="s">
+        <v>540</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>479</v>
+        <v>142</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>471</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
@@ -7667,32 +7634,32 @@
         <v>37</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="34" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="37" t="s">
-        <v>546</v>
+      <c r="B13" s="35" t="s">
+        <v>538</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="37" t="s">
-        <v>480</v>
+      <c r="F13" s="35" t="s">
+        <v>472</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>19</v>
@@ -7737,26 +7704,26 @@
         <v>11</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="34" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="37" t="s">
-        <v>549</v>
+      <c r="B14" s="35" t="s">
+        <v>541</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="37" t="s">
-        <v>481</v>
+      <c r="F14" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>19</v>
@@ -7795,31 +7762,31 @@
         <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="34" customHeight="1">
-      <c r="T16" s="29"/>
+      <c r="T16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -7855,54 +7822,54 @@
   <sheetData>
     <row r="1" spans="2:19" ht="34" customHeight="1"/>
     <row r="2" spans="2:19" ht="34" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="42" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="43" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="3" t="s">
         <v>55</v>
       </c>
@@ -7930,13 +7897,13 @@
       <c r="P3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="2:19" ht="34" customHeight="1">
-      <c r="B4" s="37" t="s">
-        <v>550</v>
+      <c r="B4" s="35" t="s">
+        <v>542</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>116</v>
@@ -7945,8 +7912,8 @@
         <v>117</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="37" t="s">
-        <v>482</v>
+      <c r="F4" s="35" t="s">
+        <v>474</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>120</v>
@@ -7979,18 +7946,18 @@
         <v>8</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="34" customHeight="1">
-      <c r="B5" s="37" t="s">
-        <v>550</v>
+      <c r="B5" s="35" t="s">
+        <v>542</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>116</v>
@@ -7999,11 +7966,11 @@
         <v>117</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="37" t="s">
-        <v>483</v>
+      <c r="F5" s="35" t="s">
+        <v>475</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>61</v>
@@ -8033,18 +8000,18 @@
         <v>8</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="37" t="s">
-        <v>550</v>
+      <c r="B6" s="35" t="s">
+        <v>542</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>116</v>
@@ -8053,8 +8020,8 @@
         <v>117</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="37" t="s">
-        <v>484</v>
+      <c r="F6" s="35" t="s">
+        <v>476</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>121</v>
@@ -8093,12 +8060,12 @@
         <v>48</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="37" t="s">
-        <v>551</v>
+      <c r="B7" s="35" t="s">
+        <v>543</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>116</v>
@@ -8109,8 +8076,8 @@
       <c r="E7" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>485</v>
+      <c r="F7" s="35" t="s">
+        <v>477</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
@@ -8141,18 +8108,18 @@
         <v>9</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>51</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="37" t="s">
-        <v>550</v>
+      <c r="B8" s="35" t="s">
+        <v>542</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>116</v>
@@ -8161,8 +8128,8 @@
         <v>117</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="37" t="s">
-        <v>486</v>
+      <c r="F8" s="35" t="s">
+        <v>478</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>122</v>
@@ -8201,12 +8168,12 @@
         <v>52</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="37" t="s">
-        <v>550</v>
+      <c r="B9" s="35" t="s">
+        <v>542</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>116</v>
@@ -8215,8 +8182,8 @@
         <v>117</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="37" t="s">
-        <v>487</v>
+      <c r="F9" s="35" t="s">
+        <v>479</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>124</v>
@@ -8255,12 +8222,12 @@
         <v>11</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="37" t="s">
-        <v>552</v>
+      <c r="B10" s="35" t="s">
+        <v>544</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>116</v>
@@ -8269,8 +8236,8 @@
         <v>118</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="37" t="s">
-        <v>488</v>
+      <c r="F10" s="35" t="s">
+        <v>480</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>125</v>
@@ -8303,18 +8270,18 @@
         <v>8</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="37" t="s">
-        <v>552</v>
+      <c r="B11" s="35" t="s">
+        <v>544</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>116</v>
@@ -8323,8 +8290,8 @@
         <v>118</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="37" t="s">
-        <v>489</v>
+      <c r="F11" s="35" t="s">
+        <v>481</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>126</v>
@@ -8357,18 +8324,18 @@
         <v>8</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="37" t="s">
-        <v>553</v>
+      <c r="B12" s="35" t="s">
+        <v>545</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>116</v>
@@ -8379,8 +8346,8 @@
       <c r="E12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>490</v>
+      <c r="F12" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
@@ -8411,18 +8378,18 @@
         <v>9</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="34" customHeight="1">
-      <c r="B13" s="37" t="s">
-        <v>552</v>
+      <c r="B13" s="35" t="s">
+        <v>544</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>116</v>
@@ -8431,8 +8398,8 @@
         <v>118</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="37" t="s">
-        <v>491</v>
+      <c r="F13" s="35" t="s">
+        <v>483</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>122</v>
@@ -8471,12 +8438,12 @@
         <v>66</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="34" customHeight="1">
-      <c r="B14" s="37" t="s">
-        <v>552</v>
+      <c r="B14" s="35" t="s">
+        <v>544</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>116</v>
@@ -8485,8 +8452,8 @@
         <v>118</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="37" t="s">
-        <v>492</v>
+      <c r="F14" s="35" t="s">
+        <v>484</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>127</v>
@@ -8525,12 +8492,12 @@
         <v>11</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="34" customHeight="1">
-      <c r="B15" s="37" t="s">
-        <v>554</v>
+      <c r="B15" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>116</v>
@@ -8539,11 +8506,11 @@
         <v>119</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="37" t="s">
-        <v>493</v>
+      <c r="F15" s="35" t="s">
+        <v>485</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>70</v>
@@ -8573,18 +8540,18 @@
         <v>8</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="34" customHeight="1">
-      <c r="B16" s="37" t="s">
-        <v>554</v>
+      <c r="B16" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>116</v>
@@ -8593,11 +8560,11 @@
         <v>119</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="37" t="s">
-        <v>494</v>
+      <c r="F16" s="35" t="s">
+        <v>486</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>70</v>
@@ -8633,12 +8600,12 @@
         <v>11</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="34" customHeight="1">
-      <c r="B17" s="37" t="s">
-        <v>554</v>
+      <c r="B17" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>116</v>
@@ -8647,11 +8614,11 @@
         <v>119</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="37" t="s">
-        <v>495</v>
+      <c r="F17" s="35" t="s">
+        <v>487</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>70</v>
@@ -8681,18 +8648,18 @@
         <v>8</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="34" customHeight="1">
-      <c r="B18" s="37" t="s">
-        <v>554</v>
+      <c r="B18" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>116</v>
@@ -8701,11 +8668,11 @@
         <v>119</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="37" t="s">
-        <v>496</v>
+      <c r="F18" s="35" t="s">
+        <v>488</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>79</v>
@@ -8741,12 +8708,12 @@
         <v>136</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="34" customHeight="1">
-      <c r="B19" s="37" t="s">
-        <v>554</v>
+      <c r="B19" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>116</v>
@@ -8755,11 +8722,11 @@
         <v>119</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="37" t="s">
-        <v>497</v>
+      <c r="F19" s="35" t="s">
+        <v>489</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>79</v>
@@ -8795,12 +8762,12 @@
         <v>11</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="34" customHeight="1">
-      <c r="B20" s="37" t="s">
-        <v>554</v>
+      <c r="B20" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>116</v>
@@ -8809,11 +8776,11 @@
         <v>119</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="37" t="s">
-        <v>498</v>
+      <c r="F20" s="35" t="s">
+        <v>490</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>71</v>
@@ -8843,18 +8810,18 @@
         <v>8</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="34" customHeight="1">
-      <c r="B21" s="37" t="s">
-        <v>554</v>
+      <c r="B21" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>116</v>
@@ -8863,11 +8830,11 @@
         <v>119</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="37" t="s">
-        <v>499</v>
+      <c r="F21" s="35" t="s">
+        <v>491</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>54</v>
@@ -8897,18 +8864,18 @@
         <v>8</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="34" customHeight="1">
-      <c r="B22" s="37" t="s">
-        <v>554</v>
+      <c r="B22" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>116</v>
@@ -8917,11 +8884,11 @@
         <v>119</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="37" t="s">
-        <v>500</v>
+      <c r="F22" s="35" t="s">
+        <v>492</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>54</v>
@@ -8957,12 +8924,12 @@
         <v>11</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="34" customHeight="1">
-      <c r="B23" s="37" t="s">
-        <v>554</v>
+      <c r="B23" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>116</v>
@@ -8971,11 +8938,11 @@
         <v>119</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="37" t="s">
-        <v>501</v>
+      <c r="F23" s="35" t="s">
+        <v>493</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>54</v>
@@ -9005,18 +8972,18 @@
         <v>8</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="34" customHeight="1">
-      <c r="B24" s="37" t="s">
-        <v>554</v>
+      <c r="B24" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>116</v>
@@ -9025,11 +8992,11 @@
         <v>119</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="37" t="s">
-        <v>502</v>
+      <c r="F24" s="35" t="s">
+        <v>494</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>80</v>
@@ -9059,18 +9026,18 @@
         <v>8</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="34" customHeight="1">
-      <c r="B25" s="37" t="s">
-        <v>554</v>
+      <c r="B25" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>116</v>
@@ -9079,11 +9046,11 @@
         <v>119</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="37" t="s">
-        <v>503</v>
+      <c r="F25" s="35" t="s">
+        <v>495</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>80</v>
@@ -9119,12 +9086,12 @@
         <v>11</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="34" customHeight="1">
-      <c r="B26" s="37" t="s">
-        <v>554</v>
+      <c r="B26" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>116</v>
@@ -9133,11 +9100,11 @@
         <v>119</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="37" t="s">
-        <v>504</v>
+      <c r="F26" s="35" t="s">
+        <v>496</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>74</v>
@@ -9167,18 +9134,18 @@
         <v>8</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="34" customHeight="1">
-      <c r="B27" s="37" t="s">
-        <v>554</v>
+      <c r="B27" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>116</v>
@@ -9187,11 +9154,11 @@
         <v>119</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="37" t="s">
-        <v>505</v>
+      <c r="F27" s="35" t="s">
+        <v>497</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>81</v>
@@ -9221,18 +9188,18 @@
         <v>8</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="34" customHeight="1">
-      <c r="B28" s="37" t="s">
-        <v>554</v>
+      <c r="B28" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>116</v>
@@ -9241,11 +9208,11 @@
         <v>119</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="37" t="s">
-        <v>506</v>
+      <c r="F28" s="35" t="s">
+        <v>498</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>81</v>
@@ -9281,12 +9248,12 @@
         <v>11</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="34" customHeight="1">
-      <c r="B29" s="37" t="s">
-        <v>554</v>
+      <c r="B29" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>116</v>
@@ -9295,11 +9262,11 @@
         <v>119</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="37" t="s">
-        <v>507</v>
+      <c r="F29" s="35" t="s">
+        <v>499</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>77</v>
@@ -9329,18 +9296,18 @@
         <v>8</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="34" customHeight="1">
-      <c r="B30" s="37" t="s">
-        <v>554</v>
+      <c r="B30" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>116</v>
@@ -9349,11 +9316,11 @@
         <v>119</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="37" t="s">
-        <v>508</v>
+      <c r="F30" s="35" t="s">
+        <v>500</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>82</v>
@@ -9383,18 +9350,18 @@
         <v>8</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="34" customHeight="1">
-      <c r="B31" s="37" t="s">
-        <v>554</v>
+      <c r="B31" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>116</v>
@@ -9403,11 +9370,11 @@
         <v>119</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="37" t="s">
-        <v>509</v>
+      <c r="F31" s="35" t="s">
+        <v>501</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>82</v>
@@ -9443,12 +9410,12 @@
         <v>11</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="2:19" ht="34" customHeight="1">
-      <c r="B32" s="37" t="s">
-        <v>554</v>
+      <c r="B32" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>116</v>
@@ -9457,11 +9424,11 @@
         <v>119</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="37" t="s">
-        <v>510</v>
+      <c r="F32" s="35" t="s">
+        <v>502</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>78</v>
@@ -9491,18 +9458,18 @@
         <v>8</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:19" ht="34" customHeight="1">
-      <c r="B33" s="37" t="s">
-        <v>554</v>
+      <c r="B33" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>116</v>
@@ -9511,11 +9478,11 @@
         <v>119</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="37" t="s">
-        <v>511</v>
+      <c r="F33" s="35" t="s">
+        <v>503</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>85</v>
@@ -9545,18 +9512,18 @@
         <v>8</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="2:19" ht="34" customHeight="1">
-      <c r="B34" s="37" t="s">
-        <v>554</v>
+      <c r="B34" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>116</v>
@@ -9565,11 +9532,11 @@
         <v>119</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="37" t="s">
-        <v>512</v>
+      <c r="F34" s="35" t="s">
+        <v>504</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>85</v>
@@ -9605,12 +9572,12 @@
         <v>11</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="34" customHeight="1">
-      <c r="B35" s="37" t="s">
-        <v>554</v>
+      <c r="B35" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>116</v>
@@ -9619,11 +9586,11 @@
         <v>119</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="37" t="s">
-        <v>513</v>
+      <c r="F35" s="35" t="s">
+        <v>505</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>85</v>
@@ -9653,18 +9620,18 @@
         <v>8</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="34" customHeight="1">
-      <c r="B36" s="37" t="s">
-        <v>555</v>
+      <c r="B36" s="35" t="s">
+        <v>547</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>116</v>
@@ -9675,8 +9642,8 @@
       <c r="E36" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="37" t="s">
-        <v>514</v>
+      <c r="F36" s="35" t="s">
+        <v>506</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
@@ -9707,18 +9674,18 @@
         <v>9</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="34" customHeight="1">
-      <c r="B37" s="37" t="s">
-        <v>554</v>
+      <c r="B37" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>116</v>
@@ -9727,8 +9694,8 @@
         <v>119</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="37" t="s">
-        <v>515</v>
+      <c r="F37" s="35" t="s">
+        <v>507</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>122</v>
@@ -9767,12 +9734,12 @@
         <v>64</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="2:19" ht="34" customHeight="1">
-      <c r="B38" s="37" t="s">
-        <v>554</v>
+      <c r="B38" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>116</v>
@@ -9781,8 +9748,8 @@
         <v>119</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="37" t="s">
-        <v>516</v>
+      <c r="F38" s="35" t="s">
+        <v>508</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>128</v>
@@ -9821,7 +9788,7 @@
         <v>11</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
